--- a/INTLINE/data/223/WSA/WSA.xlsx
+++ b/INTLINE/data/223/WSA/WSA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:YC2"/>
+  <dimension ref="A1:YD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3619,15 +3619,20 @@
       </c>
       <c r="YA1" s="1" t="inlineStr">
         <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="YB1" s="1" t="inlineStr">
+      <c r="YC1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="YC1" s="1" t="inlineStr">
+      <c r="YD1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -5557,7 +5562,7 @@
         <v>2807.442</v>
       </c>
       <c r="XQ2" t="n">
-        <v>3045.949</v>
+        <v>3043.315</v>
       </c>
       <c r="XR2" t="n">
         <v>3135.813</v>
@@ -5569,34 +5574,37 @@
         <v>3097.328</v>
       </c>
       <c r="XU2" t="n">
-        <v>3212.348</v>
+        <v>3212.367</v>
       </c>
       <c r="XV2" t="n">
         <v>3120.541</v>
       </c>
       <c r="XW2" t="n">
-        <v>2943.068</v>
+        <v>2981.798</v>
       </c>
       <c r="XX2" t="n">
-        <v>3094.003</v>
+        <v>3144.929</v>
       </c>
       <c r="XY2" t="n">
-        <v>2609.098</v>
+        <v>2656.907</v>
       </c>
       <c r="XZ2" t="n">
         <v>2882.699</v>
       </c>
-      <c r="YA2" t="inlineStr">
+      <c r="YA2" t="n">
+        <v>2674.622</v>
+      </c>
+      <c r="YB2" t="inlineStr">
         <is>
           <t>IPST0001</t>
         </is>
       </c>
-      <c r="YB2" t="inlineStr">
+      <c r="YC2" t="inlineStr">
         <is>
           <t>Production of Crude Steel</t>
         </is>
       </c>
-      <c r="YC2" t="inlineStr">
+      <c r="YD2" t="inlineStr">
         <is>
           <t>Thousands of Metric Tons</t>
         </is>

--- a/INTLINE/data/223/WSA/WSA.xlsx
+++ b/INTLINE/data/223/WSA/WSA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="659">
   <si>
     <t>1968-01</t>
   </si>
@@ -1967,6 +1967,9 @@
   </si>
   <si>
     <t>2022-03</t>
+  </si>
+  <si>
+    <t>2022-04</t>
   </si>
   <si>
     <t>Index</t>
@@ -2345,15 +2348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:YE2"/>
+  <dimension ref="A1:YF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:655">
+    <row r="1" spans="1:656">
       <c r="A1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4317,10 +4320,13 @@
       <c r="YE1" s="1" t="s">
         <v>653</v>
       </c>
+      <c r="YF1" s="1" t="s">
+        <v>654</v>
+      </c>
     </row>
-    <row r="2" spans="1:655">
+    <row r="2" spans="1:656">
       <c r="A2" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B2">
         <v>335</v>
@@ -6237,52 +6243,55 @@
         <v>2872.819</v>
       </c>
       <c r="XP2">
-        <v>2807.442</v>
+        <v>2801.841</v>
       </c>
       <c r="XQ2">
-        <v>3043.315</v>
+        <v>3037.1</v>
       </c>
       <c r="XR2">
-        <v>3135.813</v>
+        <v>3125.149</v>
       </c>
       <c r="XS2">
-        <v>3072.763</v>
+        <v>3068.51</v>
       </c>
       <c r="XT2">
-        <v>3097.328</v>
+        <v>3091.223</v>
       </c>
       <c r="XU2">
-        <v>3212.367</v>
+        <v>3203.383</v>
       </c>
       <c r="XV2">
-        <v>3120.541</v>
+        <v>3107.897</v>
       </c>
       <c r="XW2">
-        <v>2981.798</v>
+        <v>2968.449</v>
       </c>
       <c r="XX2">
-        <v>3144.929</v>
+        <v>3133.901</v>
       </c>
       <c r="XY2">
-        <v>2656.907</v>
+        <v>2643.682</v>
       </c>
       <c r="XZ2">
-        <v>2882.699</v>
+        <v>2928.417</v>
       </c>
       <c r="YA2">
-        <v>2674.622</v>
+        <v>2713.216</v>
       </c>
       <c r="YB2">
-        <v>2945.523</v>
-      </c>
-      <c r="YC2" t="s">
-        <v>655</v>
+        <v>2988.279</v>
+      </c>
+      <c r="YC2">
+        <v>2922.955</v>
       </c>
       <c r="YD2" t="s">
         <v>656</v>
       </c>
       <c r="YE2" t="s">
         <v>657</v>
+      </c>
+      <c r="YF2" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
